--- a/Anime dataset.xlsx
+++ b/Anime dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/504e75164d216032/Documents/Cognixia/Comprehensive Data project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/504e75164d216032/Documents/Cognixia/Comprehensive Data project/Comprehensive-Data-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32A2D462-CF57-42EA-92ED-E2EDEF4C5777}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{32A2D462-CF57-42EA-92ED-E2EDEF4C5777}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{97C18DFD-3BDA-46D0-850C-07714C704D7E}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{86A74EB4-65F4-49A3-B838-C3771640D9FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -202,6 +202,123 @@
   </si>
   <si>
     <t>Gross</t>
+  </si>
+  <si>
+    <t>Koyoharu Gotouge</t>
+  </si>
+  <si>
+    <t>Gege akutami</t>
+  </si>
+  <si>
+    <t>MAPPA</t>
+  </si>
+  <si>
+    <t>Jinsei Katakoka</t>
+  </si>
+  <si>
+    <t>Manglobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentaro Yabuki </t>
+  </si>
+  <si>
+    <t>Gonzo</t>
+  </si>
+  <si>
+    <t>Yasuhiro Nightow</t>
+  </si>
+  <si>
+    <t>Kafka Asagiri</t>
+  </si>
+  <si>
+    <t>Manga</t>
+  </si>
+  <si>
+    <t>Kentaro Miura</t>
+  </si>
+  <si>
+    <t>OLM Team Iguchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naoko Takeuchi </t>
+  </si>
+  <si>
+    <t>Toei animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air gear </t>
+  </si>
+  <si>
+    <t>Oh! Great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitoshi Iwaaki </t>
+  </si>
+  <si>
+    <t>Action, Comedy, Demons, Martial Arts, Shounen, Supernatural</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Fantasy, Shounen, Super Power</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Comedy, Drama, Fantasy, Magic, Military, Shounen</t>
+  </si>
+  <si>
+    <t>Action, Horror, Military, Seinen, Supernatural, Vampire</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Comedy, Demons, Shounen, Super Power</t>
+  </si>
+  <si>
+    <t>Action, Martial Arts, Shounen, Sports</t>
+  </si>
+  <si>
+    <t>Action, Comedy, Drama, Mystery, Shounen, Super Power, Supernatural</t>
+  </si>
+  <si>
+    <t>Action, Comedy, Shounen, Super Power</t>
+  </si>
+  <si>
+    <t>Action, Comedy, Ecchi, Shounen, Sports</t>
+  </si>
+  <si>
+    <t>Action, Comedy, Martial Arts, School, Shounen</t>
+  </si>
+  <si>
+    <t>Comedy, Drama, Romance, Shoujo, Slice of Life, Supernatural</t>
+  </si>
+  <si>
+    <t>Adventure, Comedy, Drama, Martial Arts, Mecha, Romance, Sci-Fi, Space, Sports</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Fantasy</t>
+  </si>
+  <si>
+    <t>Action, Demons, Historical, Shounen, Supernatural</t>
+  </si>
+  <si>
+    <t>Action, Demons, Horror, School, Shounen, Supernatural</t>
+  </si>
+  <si>
+    <t>Action, Horror, Sci-Fi, Shounen, Supernatural</t>
+  </si>
+  <si>
+    <t>Adventure, Comedy, Sci-Fi, Shounen, Super Power</t>
+  </si>
+  <si>
+    <t>Action, Comedy, Mystery, Seinen, Super Power, Supernatural</t>
+  </si>
+  <si>
+    <t>Action, Comedy, Fantasy, Shounen, Super Power, Supernatural, Vampire</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Demons, Drama, Fantasy, Horror, Military, Romance, Seinen, Supernatural</t>
+  </si>
+  <si>
+    <t>Demons, Magic, Romance, Shoujo</t>
   </si>
 </sst>
 </file>
@@ -252,18 +369,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -274,6 +445,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8E56FC3-613D-424D-A5B0-85119AFE49FC}" name="Table1" displayName="Table1" ref="A1:H24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:H24" xr:uid="{0EAD220D-307E-4C36-A2BE-966CE76A0022}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{CB0DBE7C-F1B3-4831-9BC1-5494C8EBBF71}" name="Rank" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{2039E17F-4D38-4808-86DB-7F75512BC6BA}" name="Name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C2E15258-75C0-45DF-89DF-F6EEED44B54B}" name="Release year" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{B5A308F9-783C-4AC7-91B6-037594FA7769}" name="Origin" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{BEF3A47F-448D-463C-99FB-21BEBAA31E5A}" name="Creator" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{619319D7-6F74-4FBC-8BC6-D65BDEBE44E3}" name="Studio" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{401A1E31-9254-4490-BA79-5FF076888B9B}" name="Genre " dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{EBFF9D20-DAB5-443E-8FA2-2449E72AB733}" name="Gross" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,20 +761,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97F61AC-E14D-4056-A1BA-720245090A5C}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" customWidth="1"/>
-    <col min="2" max="2" width="23.1328125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.04296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.90625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.1328125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.75">
@@ -615,337 +806,549 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A2">
+    <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1992</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>2011</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A4">
+      <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A5">
+      <c r="G4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>2006</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A6">
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>2006</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>2001</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>2006</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A9">
+      <c r="G8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>2002</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2006</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="2">
         <v>2012</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="G11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="2">
         <v>2001</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="G12" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="2">
         <v>1994</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="G13" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C14" s="2">
         <v>2015</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="G14" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="2">
         <v>2016</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="G15" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="F15" t="s">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="G16" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A19">
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A20">
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A21">
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B22" t="s">
+      <c r="C22" s="2">
+        <v>1997</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A23" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1992</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A24" s="2">
         <v>24</v>
       </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:H24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Anime dataset.xlsx
+++ b/Anime dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/504e75164d216032/Documents/Cognixia/Comprehensive Data project/Comprehensive-Data-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="532" documentId="8_{32A2D462-CF57-42EA-92ED-E2EDEF4C5777}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{54A307D7-A178-468B-94D8-FD0ACF54EE3F}"/>
+  <xr:revisionPtr revIDLastSave="575" documentId="8_{32A2D462-CF57-42EA-92ED-E2EDEF4C5777}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4EF42119-236E-499F-9489-84C552338BB4}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{86A74EB4-65F4-49A3-B838-C3771640D9FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -346,6 +346,18 @@
   </si>
   <si>
     <t>Atsushi Ōkubo</t>
+  </si>
+  <si>
+    <t>Masura Gotsubu</t>
+  </si>
+  <si>
+    <t>Shinichiro  Watanabe</t>
+  </si>
+  <si>
+    <t>Anime</t>
+  </si>
+  <si>
+    <t>Akira Hiyama</t>
   </si>
 </sst>
 </file>
@@ -450,36 +462,14 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -511,6 +501,28 @@
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -525,22 +537,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8E56FC3-613D-424D-A5B0-85119AFE49FC}" name="Table1" displayName="Table1" ref="A1:M35" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8E56FC3-613D-424D-A5B0-85119AFE49FC}" name="Table1" displayName="Table1" ref="A1:M35" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:M35" xr:uid="{0EAD220D-307E-4C36-A2BE-966CE76A0022}"/>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{2039E17F-4D38-4808-86DB-7F75512BC6BA}" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{C2E15258-75C0-45DF-89DF-F6EEED44B54B}" name="Release year" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{B5A308F9-783C-4AC7-91B6-037594FA7769}" name="Origin" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{BEF3A47F-448D-463C-99FB-21BEBAA31E5A}" name="Creator" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{619319D7-6F74-4FBC-8BC6-D65BDEBE44E3}" name="Studio" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{401A1E31-9254-4490-BA79-5FF076888B9B}" name="Genre " dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{518DA028-FC3B-4883-A392-9805937FD481}" name="Episodes" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{EBFF9D20-DAB5-443E-8FA2-2449E72AB733}" name="MAL RATING" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{D42D1906-2606-4D01-9C23-1B3D3F6B4F32}" name="MAL POP" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{6610034B-0E2F-4B9F-92D4-DD84D498089B}" name="MAL Members" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{61DDE1DE-2A54-462F-B305-3A89029EA928}" name="Kitsu community approval " dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2039E17F-4D38-4808-86DB-7F75512BC6BA}" name="Name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{C2E15258-75C0-45DF-89DF-F6EEED44B54B}" name="Release year" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{B5A308F9-783C-4AC7-91B6-037594FA7769}" name="Origin" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{BEF3A47F-448D-463C-99FB-21BEBAA31E5A}" name="Creator" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{619319D7-6F74-4FBC-8BC6-D65BDEBE44E3}" name="Studio" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{401A1E31-9254-4490-BA79-5FF076888B9B}" name="Genre " dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{518DA028-FC3B-4883-A392-9805937FD481}" name="Episodes" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{EBFF9D20-DAB5-443E-8FA2-2449E72AB733}" name="MAL RATING" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{D42D1906-2606-4D01-9C23-1B3D3F6B4F32}" name="MAL POP" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{6610034B-0E2F-4B9F-92D4-DD84D498089B}" name="MAL Members" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{61DDE1DE-2A54-462F-B305-3A89029EA928}" name="Kitsu community approval " dataDxfId="2"/>
     <tableColumn id="14" xr3:uid="{1A5B5302-15C3-4313-A370-B986B20A5B18}" name="Kitsu Rank" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{C37F559B-AB26-416E-9AFA-D25CBEFBF45B}" name="Kitsu Rating" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{C37F559B-AB26-416E-9AFA-D25CBEFBF45B}" name="Kitsu Rating" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -845,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97F61AC-E14D-4056-A1BA-720245090A5C}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -854,7 +866,7 @@
     <col min="1" max="1" width="24.40625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.1328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.86328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.90625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
@@ -1405,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
@@ -1446,7 +1458,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>47</v>
@@ -1482,12 +1494,12 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -1528,7 +1540,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
@@ -1605,7 +1617,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1687,7 +1699,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1728,7 +1740,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1769,7 +1781,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1851,7 +1863,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -1974,7 +1986,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
@@ -2015,7 +2027,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -2049,8 +2061,12 @@
       <c r="K29" s="9">
         <v>0.75180000000000002</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="L29" s="7">
+        <v>865</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1795</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
@@ -2093,7 +2109,7 @@
         <v>5707</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
@@ -2134,7 +2150,7 @@
         <v>5047</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -2185,28 +2201,118 @@
       <c r="C33" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="D33" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-    </row>
-    <row r="34" spans="1:13" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="F33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="1">
+        <v>26</v>
+      </c>
+      <c r="H33" s="1">
+        <v>8.77</v>
+      </c>
+      <c r="I33" s="1">
+        <v>41</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1338276</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0.82240000000000002</v>
+      </c>
+      <c r="L33" s="11">
+        <v>31</v>
+      </c>
+      <c r="M33" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
+      <c r="B34" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="1">
+        <v>26</v>
+      </c>
+      <c r="H34" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="I34" s="1">
+        <v>92</v>
+      </c>
+      <c r="J34" s="3">
+        <v>948372</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0.82220000000000004</v>
+      </c>
+      <c r="L34" s="11">
+        <v>80</v>
+      </c>
+      <c r="M34" s="11">
+        <v>131</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
+      <c r="B35" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="1">
+        <v>12</v>
+      </c>
+      <c r="H35" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I35" s="1">
+        <v>120</v>
+      </c>
+      <c r="J35" s="3">
+        <v>788976</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="L35" s="11">
+        <v>115</v>
+      </c>
+      <c r="M35" s="11">
+        <v>201</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
